--- a/public/upload-file/Grading-Results-Upload.xlsx
+++ b/public/upload-file/Grading-Results-Upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Account ID</t>
   </si>
   <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
     <t>Rank</t>
   </si>
   <si>
     <t>Marks</t>
   </si>
   <si>
-    <t xml:space="preserve"> Abacus Grade</t>
-  </si>
-  <si>
     <t>Mental Grade</t>
   </si>
   <si>
@@ -57,21 +51,12 @@
     <t>SUD-051223B-1</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>AG-1</t>
   </si>
   <si>
     <t>AG-2</t>
   </si>
   <si>
-    <t>MG-1</t>
-  </si>
-  <si>
-    <t>MG-2</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -82,6 +67,39 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Mental Results</t>
+  </si>
+  <si>
+    <t>Mental Result Pass/Fail</t>
+  </si>
+  <si>
+    <t>Abacus Grade</t>
+  </si>
+  <si>
+    <t>Abacus Result Pass/Fail</t>
+  </si>
+  <si>
+    <t>Ag-2</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Mr-1</t>
+  </si>
+  <si>
+    <t>Mr-2</t>
+  </si>
+  <si>
+    <t>Mr-3</t>
+  </si>
+  <si>
+    <t>Ag-3</t>
   </si>
 </sst>
 </file>
@@ -422,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -434,10 +452,13 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,94 +466,124 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/public/upload-file/Grading-Results-Upload.xlsx
+++ b/public/upload-file/Grading-Results-Upload.xlsx
@@ -16,62 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Account ID</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
     <t>Mental Grade</t>
   </si>
   <si>
-    <t>Mon wai</t>
-  </si>
-  <si>
-    <t>SUD-051223MW</t>
-  </si>
-  <si>
-    <t>Bhupesh Mishra</t>
-  </si>
-  <si>
-    <t>SUD-051223BM</t>
-  </si>
-  <si>
-    <t>Bhupesh</t>
-  </si>
-  <si>
-    <t>SUD-051223B-1</t>
-  </si>
-  <si>
-    <t>AG-1</t>
-  </si>
-  <si>
-    <t>AG-2</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Mental Results</t>
-  </si>
-  <si>
     <t>Mental Result Pass/Fail</t>
   </si>
   <si>
@@ -81,25 +33,19 @@
     <t>Abacus Result Pass/Fail</t>
   </si>
   <si>
-    <t>Ag-2</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>Mr-1</t>
-  </si>
-  <si>
-    <t>Mr-2</t>
-  </si>
-  <si>
-    <t>Mr-3</t>
-  </si>
-  <si>
-    <t>Ag-3</t>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>Lerning Location</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Mental Marks</t>
+  </si>
+  <si>
+    <t>Abacus Marks</t>
   </si>
 </sst>
 </file>
@@ -440,22 +386,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -463,127 +410,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/public/upload-file/Grading-Results-Upload.xlsx
+++ b/public/upload-file/Grading-Results-Upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -33,26 +33,38 @@
     <t>Abacus Result Pass/Fail</t>
   </si>
   <si>
-    <t>Instructor</t>
-  </si>
-  <si>
     <t>Lerning Location</t>
   </si>
   <si>
     <t>DOB</t>
   </si>
   <si>
-    <t>Mental Marks</t>
-  </si>
-  <si>
-    <t>Abacus Marks</t>
+    <t>Account Id</t>
+  </si>
+  <si>
+    <t>Instructor Id</t>
+  </si>
+  <si>
+    <t>Mental Results</t>
+  </si>
+  <si>
+    <t>Abacus Results</t>
+  </si>
+  <si>
+    <t>Certificate Id</t>
+  </si>
+  <si>
+    <t>Instructor Name</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +79,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,9 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,55 +413,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/upload-file/Grading-Results-Upload.xlsx
+++ b/public/upload-file/Grading-Results-Upload.xlsx
@@ -57,7 +57,7 @@
     <t>Instructor Name</t>
   </si>
   <si>
-    <t>Result</t>
+    <t>Result InstructorFE</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/public/upload-file/Grading-Results-Upload.xlsx
+++ b/public/upload-file/Grading-Results-Upload.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -430,8 +430,8 @@
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -468,10 +468,10 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>13</v>
@@ -479,6 +479,9 @@
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="K2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
